--- a/Analyses/CAMspiracy/t2_CAMs/outputs/PROLIFIC_PIDs_USA_Participated.xlsx
+++ b/Analyses/CAMspiracy/t2_CAMs/outputs/PROLIFIC_PIDs_USA_Participated.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Analyses\CAMspiracy\t2_CAMs\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C948CD-A7CA-4F88-96BE-2F0FF08036DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -361,10 +353,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -376,7 +369,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -394,331 +387,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -726,612 +407,612 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
       </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
       </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
       </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
       </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="C40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="n">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="C41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="n">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="C43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
       </c>
-      <c r="C45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="C47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="C48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="C49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
       </c>
-      <c r="C50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>106</v>
       </c>
-      <c r="C51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>107</v>
       </c>
-      <c r="C52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="C53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C56">
-        <v>55</v>
+      <c r="C56" t="n">
+        <v>55.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>